--- a/docs/기획/20191212_TripBy_요구사항정의서.xlsx
+++ b/docs/기획/20191212_TripBy_요구사항정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iueha\git\TripBy\docs\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4140487-A98E-4559-9C35-F7655CFA33CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E574184-25F9-48F8-A118-A4A548CEAE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{994E5B99-2E1F-4CFC-A719-4275DCE37E50}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="206">
   <si>
     <t>요구사항ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -554,15 +554,9 @@
     <t>UI</t>
   </si>
   <si>
-    <t>일반 여행기 , 베스트 여행기 , 나의 지난 여행기</t>
-  </si>
-  <si>
     <t>여행기 페이지</t>
   </si>
   <si>
-    <t>여행기간 입력 달력,  제목, 내용 인풋 폼, 사진 업로드</t>
-  </si>
-  <si>
     <t>지도 API, 달력 API, 교통정보 API 활용</t>
   </si>
   <si>
@@ -572,15 +566,9 @@
     <t>기능</t>
   </si>
   <si>
-    <t>제목, 달력을 통한 여행기간 입력, 여행장소, 목적, 여행기 공개 여부, 사진(멀티파트), 동행인원 입력</t>
-  </si>
-  <si>
     <t>여행기 수정</t>
   </si>
   <si>
-    <t>제목, 달력을 통한 여행기간 입력, 여행장소, 목적, 여행기 공개 여부, 사진(멀티파트), 동행인원 수정</t>
-  </si>
-  <si>
     <t>여행기조회</t>
   </si>
   <si>
@@ -681,9 +669,6 @@
   </si>
   <si>
     <t>여행 후기 표시</t>
-  </si>
-  <si>
-    <t>여행지에 대한 다른 사용자들의 후기를 리스팅</t>
   </si>
   <si>
     <t>교통정보 표시</t>
@@ -741,6 +726,37 @@
   </si>
   <si>
     <t>선택된 동행에서 해당 회원을 삭제, 동행 인원에게 공지, 취소한 회원은 페널티</t>
+  </si>
+  <si>
+    <t>일반 여행기 , 베스트 여행기 , 나의 지난 여행기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기간 입력 달력,  제목, 내용 인풋 폼, 사진 업로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인에 노출되는 여행기는 대표사진과 여행기제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기에는 전체 여행기, 지도 API, 달력 API, 교통정보 API 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지에 대한 다른 사용자들의 후기를 리스팅, 여행기 간략후기와 전체보기 버튼, 동행인이 있다면 동행인도 표시
+접근성, 위생, 친절, 음식, 경치(인테리어)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 달력을 통한 여행기간 입력, 여행장소, 목적, 여행기 공개 여부, 사진(멀티파트), 동행인원 입력,
+접근성, 위생, 친절, 음식, 경치(인테리어)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 달력을 통한 여행기간 입력, 여행장소, 목적, 여행기 공개 여부, 사진(멀티파트), 동행인원 수정
+접근성, 위생, 친절, 음식, 경치(인테리어)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -783,16 +799,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -836,7 +859,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,25 +875,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1190,9 +1222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D6331E-37F8-45E1-8114-95685756995C}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1204,636 +1236,670 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="A16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="A21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="A23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="A24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="A27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="A29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="A30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="A34" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="A35" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="A36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="A37" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" ht="51" x14ac:dyDescent="0.45">
-      <c r="A39" s="10" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:26" ht="42" x14ac:dyDescent="0.45">
+      <c r="A39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:26" ht="28" x14ac:dyDescent="0.45">
+      <c r="A41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C41" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D41" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A40" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="C42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:26" ht="34" x14ac:dyDescent="0.45">
-      <c r="A41" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="C43" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A42" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A43" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1857,19 +1923,21 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="6"/>
+      <c r="D45" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1893,20 +1961,20 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>145</v>
+      <c r="D46" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1930,21 +1998,21 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:26" ht="28" x14ac:dyDescent="0.45">
+      <c r="A47" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="B47" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>145</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -1968,20 +2036,20 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:26" ht="28" x14ac:dyDescent="0.45">
+      <c r="A48" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" s="5"/>
+      <c r="B48" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" s="12"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2005,20 +2073,20 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>153</v>
+      <c r="C49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2043,19 +2111,19 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="5"/>
+      <c r="B50" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="12"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2079,19 +2147,19 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="5"/>
+      <c r="A51" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="12"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2115,20 +2183,20 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A52" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>162</v>
+      <c r="A52" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2153,19 +2221,19 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A53" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="5"/>
+      <c r="A53" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="12"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2189,20 +2257,20 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A54" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>169</v>
+      <c r="A54" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2227,15 +2295,15 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="A55" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2259,19 +2327,19 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A56" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="3"/>
+      <c r="A56" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="12"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2295,20 +2363,20 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>177</v>
+      <c r="B57" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2333,20 +2401,20 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>180</v>
+      <c r="B58" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -2371,20 +2439,20 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>183</v>
+      <c r="B59" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -2408,22 +2476,20 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:26" ht="28" x14ac:dyDescent="0.45">
+      <c r="A60" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="B60" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="12"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2447,19 +2513,19 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="3"/>
+      <c r="B61" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="12"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -2483,20 +2549,20 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>191</v>
+      <c r="A62" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
